--- a/Code_python/Data/extraction/GOLD.xlsx
+++ b/Code_python/Data/extraction/GOLD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6210" uniqueCount="6210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6211" uniqueCount="6211">
   <si>
     <t>2000-08-30</t>
   </si>
@@ -18644,6 +18644,9 @@
   </si>
   <si>
     <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>2020-11-22</t>
   </si>
 </sst>
 </file>
@@ -19001,7 +19004,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6211"/>
+  <dimension ref="A1:B6212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -65452,6 +65455,11 @@
         <v>1871.199951171875</v>
       </c>
     </row>
+    <row r="6212" spans="1:2">
+      <c r="A6212" t="s">
+        <v>6210</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Code_python/Data/extraction/GOLD.xlsx
+++ b/Code_python/Data/extraction/GOLD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6211" uniqueCount="6211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6250" uniqueCount="6250">
   <si>
     <t>2000-08-30</t>
   </si>
@@ -18647,6 +18647,123 @@
   </si>
   <si>
     <t>2020-11-22</t>
+  </si>
+  <si>
+    <t>2020-11-23</t>
+  </si>
+  <si>
+    <t>2020-11-24</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-11-29</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>2020-12-01</t>
+  </si>
+  <si>
+    <t>2020-12-02</t>
+  </si>
+  <si>
+    <t>2020-12-03</t>
+  </si>
+  <si>
+    <t>2020-12-04</t>
+  </si>
+  <si>
+    <t>2020-12-06</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>2020-12-08</t>
+  </si>
+  <si>
+    <t>2020-12-09</t>
+  </si>
+  <si>
+    <t>2020-12-10</t>
+  </si>
+  <si>
+    <t>2020-12-11</t>
+  </si>
+  <si>
+    <t>2020-12-13</t>
+  </si>
+  <si>
+    <t>2020-12-14</t>
+  </si>
+  <si>
+    <t>2020-12-15</t>
+  </si>
+  <si>
+    <t>2020-12-16</t>
+  </si>
+  <si>
+    <t>2020-12-17</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>2020-12-20</t>
+  </si>
+  <si>
+    <t>2020-12-21</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>2020-12-23</t>
+  </si>
+  <si>
+    <t>2020-12-24</t>
+  </si>
+  <si>
+    <t>2020-12-27</t>
+  </si>
+  <si>
+    <t>2020-12-28</t>
+  </si>
+  <si>
+    <t>2020-12-29</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2021-01-03</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>2021-01-05</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>2021-01-07</t>
+  </si>
+  <si>
+    <t>2021-01-08</t>
+  </si>
+  <si>
+    <t>2021-01-10</t>
   </si>
 </sst>
 </file>
@@ -19004,7 +19121,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6212"/>
+  <dimension ref="A1:B6251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -65460,6 +65577,291 @@
         <v>6210</v>
       </c>
     </row>
+    <row r="6213" spans="1:2">
+      <c r="A6213" t="s">
+        <v>6211</v>
+      </c>
+      <c r="B6213">
+        <v>1834.800048828125</v>
+      </c>
+    </row>
+    <row r="6214" spans="1:2">
+      <c r="A6214" t="s">
+        <v>6212</v>
+      </c>
+      <c r="B6214">
+        <v>1829.300048828125</v>
+      </c>
+    </row>
+    <row r="6215" spans="1:2">
+      <c r="A6215" t="s">
+        <v>6213</v>
+      </c>
+      <c r="B6215">
+        <v>1801.400024414062</v>
+      </c>
+    </row>
+    <row r="6216" spans="1:2">
+      <c r="A6216" t="s">
+        <v>6214</v>
+      </c>
+    </row>
+    <row r="6217" spans="1:2">
+      <c r="A6217" t="s">
+        <v>6215</v>
+      </c>
+    </row>
+    <row r="6218" spans="1:2">
+      <c r="A6218" t="s">
+        <v>6216</v>
+      </c>
+      <c r="B6218">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="6219" spans="1:2">
+      <c r="A6219" t="s">
+        <v>6217</v>
+      </c>
+      <c r="B6219">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="6220" spans="1:2">
+      <c r="A6220" t="s">
+        <v>6218</v>
+      </c>
+      <c r="B6220">
+        <v>1811.300048828125</v>
+      </c>
+    </row>
+    <row r="6221" spans="1:2">
+      <c r="A6221" t="s">
+        <v>6219</v>
+      </c>
+      <c r="B6221">
+        <v>1829.199951171875</v>
+      </c>
+    </row>
+    <row r="6222" spans="1:2">
+      <c r="A6222" t="s">
+        <v>6220</v>
+      </c>
+      <c r="B6222">
+        <v>1840.699951171875</v>
+      </c>
+    </row>
+    <row r="6223" spans="1:2">
+      <c r="A6223" t="s">
+        <v>6221</v>
+      </c>
+    </row>
+    <row r="6224" spans="1:2">
+      <c r="A6224" t="s">
+        <v>6222</v>
+      </c>
+      <c r="B6224">
+        <v>1836.5</v>
+      </c>
+    </row>
+    <row r="6225" spans="1:2">
+      <c r="A6225" t="s">
+        <v>6223</v>
+      </c>
+      <c r="B6225">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="6226" spans="1:2">
+      <c r="A6226" t="s">
+        <v>6224</v>
+      </c>
+      <c r="B6226">
+        <v>1867.099975585938</v>
+      </c>
+    </row>
+    <row r="6227" spans="1:2">
+      <c r="A6227" t="s">
+        <v>6225</v>
+      </c>
+      <c r="B6227">
+        <v>1833.199951171875</v>
+      </c>
+    </row>
+    <row r="6228" spans="1:2">
+      <c r="A6228" t="s">
+        <v>6226</v>
+      </c>
+      <c r="B6228">
+        <v>1838.5</v>
+      </c>
+    </row>
+    <row r="6229" spans="1:2">
+      <c r="A6229" t="s">
+        <v>6227</v>
+      </c>
+    </row>
+    <row r="6230" spans="1:2">
+      <c r="A6230" t="s">
+        <v>6228</v>
+      </c>
+      <c r="B6230">
+        <v>1835.5</v>
+      </c>
+    </row>
+    <row r="6231" spans="1:2">
+      <c r="A6231" t="s">
+        <v>6229</v>
+      </c>
+      <c r="B6231">
+        <v>1833.5</v>
+      </c>
+    </row>
+    <row r="6232" spans="1:2">
+      <c r="A6232" t="s">
+        <v>6230</v>
+      </c>
+      <c r="B6232">
+        <v>1856.5</v>
+      </c>
+    </row>
+    <row r="6233" spans="1:2">
+      <c r="A6233" t="s">
+        <v>6231</v>
+      </c>
+      <c r="B6233">
+        <v>1874.199951171875</v>
+      </c>
+    </row>
+    <row r="6234" spans="1:2">
+      <c r="A6234" t="s">
+        <v>6232</v>
+      </c>
+      <c r="B6234">
+        <v>1882.400024414062</v>
+      </c>
+    </row>
+    <row r="6235" spans="1:2">
+      <c r="A6235" t="s">
+        <v>6233</v>
+      </c>
+    </row>
+    <row r="6236" spans="1:2">
+      <c r="A6236" t="s">
+        <v>6234</v>
+      </c>
+      <c r="B6236">
+        <v>1884.800048828125</v>
+      </c>
+    </row>
+    <row r="6237" spans="1:2">
+      <c r="A6237" t="s">
+        <v>6235</v>
+      </c>
+      <c r="B6237">
+        <v>1882.199951171875</v>
+      </c>
+    </row>
+    <row r="6238" spans="1:2">
+      <c r="A6238" t="s">
+        <v>6236</v>
+      </c>
+      <c r="B6238">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="6239" spans="1:2">
+      <c r="A6239" t="s">
+        <v>6237</v>
+      </c>
+    </row>
+    <row r="6240" spans="1:2">
+      <c r="A6240" t="s">
+        <v>6238</v>
+      </c>
+    </row>
+    <row r="6241" spans="1:2">
+      <c r="A6241" t="s">
+        <v>6239</v>
+      </c>
+      <c r="B6241">
+        <v>1895.5</v>
+      </c>
+    </row>
+    <row r="6242" spans="1:2">
+      <c r="A6242" t="s">
+        <v>6240</v>
+      </c>
+      <c r="B6242">
+        <v>1881.300048828125</v>
+      </c>
+    </row>
+    <row r="6243" spans="1:2">
+      <c r="A6243" t="s">
+        <v>6241</v>
+      </c>
+      <c r="B6243">
+        <v>1879.900024414062</v>
+      </c>
+    </row>
+    <row r="6244" spans="1:2">
+      <c r="A6244" t="s">
+        <v>6242</v>
+      </c>
+      <c r="B6244">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="6245" spans="1:2">
+      <c r="A6245" t="s">
+        <v>6243</v>
+      </c>
+    </row>
+    <row r="6246" spans="1:2">
+      <c r="A6246" t="s">
+        <v>6244</v>
+      </c>
+      <c r="B6246">
+        <v>1912.199951171875</v>
+      </c>
+    </row>
+    <row r="6247" spans="1:2">
+      <c r="A6247" t="s">
+        <v>6245</v>
+      </c>
+      <c r="B6247">
+        <v>1941.699951171875</v>
+      </c>
+    </row>
+    <row r="6248" spans="1:2">
+      <c r="A6248" t="s">
+        <v>6246</v>
+      </c>
+      <c r="B6248">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="6249" spans="1:2">
+      <c r="A6249" t="s">
+        <v>6247</v>
+      </c>
+      <c r="B6249">
+        <v>1922.599975585938</v>
+      </c>
+    </row>
+    <row r="6250" spans="1:2">
+      <c r="A6250" t="s">
+        <v>6248</v>
+      </c>
+      <c r="B6250">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="6251" spans="1:2">
+      <c r="A6251" t="s">
+        <v>6249</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
